--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4675.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4675.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mohammed Siraj</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>15/01/2019</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>06/02/2022</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -692,7 +755,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>17/07/2022</t>
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -752,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4621</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -804,7 +866,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -844,7 +906,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>27/07/2022</t>
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -892,7 +953,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>18/08/2022</t>
@@ -900,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4637</t>
+          <t>4637</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -940,7 +1000,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>20/08/2022</t>
@@ -948,7 +1007,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4640</t>
+          <t>4640</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -988,7 +1047,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>06/10/2022</t>
@@ -996,7 +1054,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4656</t>
+          <t>4656</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1036,7 +1094,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>09/10/2022</t>
@@ -1044,7 +1101,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4657</t>
+          <t>4657</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1084,7 +1141,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>11/10/2022</t>
@@ -1092,7 +1148,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4658</t>
+          <t>4658</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1144,7 +1200,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4679</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1196,7 +1252,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1248,7 +1304,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1300,7 +1356,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4687</t>
+          <t>4687</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1340,7 +1396,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>12/01/2023</t>
@@ -1348,7 +1403,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4689</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1388,7 +1443,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>15/01/2023</t>
@@ -1396,7 +1450,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4691</t>
+          <t>4691</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1436,7 +1490,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>18/01/2023</t>
@@ -1444,7 +1497,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1484,7 +1537,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>21/01/2023</t>
@@ -1492,7 +1544,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1532,7 +1584,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>17/03/2023</t>
@@ -1540,7 +1591,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1592,7 +1643,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1644,7 +1695,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1683,7 +1734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1705,7 +1756,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1742,7 +1793,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1779,7 +1830,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1816,7 +1867,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1853,7 +1904,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1890,7 +1941,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1927,7 +1978,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4621</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1964,7 +2015,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2001,7 +2052,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2038,7 +2089,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4637</t>
+          <t>4637</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2075,7 +2126,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4640</t>
+          <t>4640</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2112,7 +2163,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4656</t>
+          <t>4656</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2149,7 +2200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4657</t>
+          <t>4657</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2186,7 +2237,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4658</t>
+          <t>4658</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2223,7 +2274,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4679</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2260,7 +2311,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2297,7 +2348,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2334,7 +2385,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4687</t>
+          <t>4687</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2371,7 +2422,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4689</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2408,7 +2459,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4691</t>
+          <t>4691</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2445,7 +2496,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2482,7 +2533,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2519,7 +2570,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2556,7 +2607,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2593,7 +2644,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2621,6 +2672,407 @@
           <t>2/37</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.32%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4637</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4.84%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4640</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4675.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4675.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2760,10 +2761,6 @@
           <t>4621</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2779,9 +2776,6 @@
       <c r="B4" t="n">
         <v>10</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2794,10 +2788,6 @@
           <t>4624</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2870,15 +2860,290 @@
           <t>4656</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4637</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4640</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2886,13 +3151,14 @@
           <t>4657</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -2902,15 +3168,14 @@
           <t>4658</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -2920,13 +3185,14 @@
           <t>4679</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -2936,13 +3202,14 @@
           <t>4682</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -2952,17 +3219,8 @@
           <t>4685</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2970,25 +3228,8 @@
           <t>4687</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>11</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2996,11 +3237,16 @@
           <t>4689</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3010,9 +3256,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3022,9 +3265,6 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3032,11 +3272,16 @@
           <t>4695</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3044,11 +3289,16 @@
           <t>4725</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3056,11 +3306,12 @@
           <t>4728</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3068,11 +3319,16 @@
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4675.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4675.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2761,6 +2760,10 @@
           <t>4621</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2776,6 +2779,9 @@
       <c r="B4" t="n">
         <v>10</v>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2788,6 +2794,10 @@
           <t>4624</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2860,6 +2870,10 @@
           <t>4656</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2872,6 +2886,10 @@
           <t>4657</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2887,6 +2905,9 @@
       <c r="B10" t="n">
         <v>10</v>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2899,6 +2920,10 @@
           <t>4679</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2911,6 +2936,10 @@
           <t>4682</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2926,6 +2955,9 @@
       <c r="B13" t="n">
         <v>10</v>
       </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2951,6 +2983,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2963,6 +2996,11 @@
           <t>4689</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2970,6 +3008,11 @@
           <t>4691</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2977,6 +3020,11 @@
           <t>4692</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2984,6 +3032,11 @@
           <t>4695</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2991,6 +3044,11 @@
           <t>4725</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2998,6 +3056,11 @@
           <t>4728</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3005,330 +3068,11 @@
           <t>4732</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4621</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4623</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4624</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4637</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4640</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4656</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4657</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4658</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4679</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4682</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4687</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4689</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4691</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4692</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4695</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4728</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4732</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4675.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4675.xlsx
@@ -2684,7 +2684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,27 +2727,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>9</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.32%</t>
-        </is>
-      </c>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2757,7 +2743,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4621</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -2773,15 +2759,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4623</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.27%</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2791,13 +2789,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4624</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.51%</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2807,15 +2819,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4637</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2825,7 +2837,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.84%</t>
+          <t>0.32%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2837,27 +2849,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4640</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.75%</t>
-        </is>
-      </c>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2867,10 +2865,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4656</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -2883,7 +2883,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4657</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -2899,15 +2899,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4658</t>
+          <t>4637</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>10</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4.84%</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2917,13 +2929,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4679</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+          <t>4640</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2933,7 +2959,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4682</t>
+          <t>4656</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -2949,12 +2975,10 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -2967,22 +2991,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4687</t>
+          <t>4658</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
@@ -2993,55 +3009,83 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4691</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4692</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4695</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4725</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -3053,7 +3097,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4728</t>
+          <t>4691</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -3065,7 +3109,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4732</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -3074,6 +3118,54 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
